--- a/PFOA inhalation Rat/Data/PFOA_female_tissues_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_tissues_ORAL_kim_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DBEBDA-8A17-401B-8DC4-FFC4A3CB5F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661343B-7D4D-49B0-A06E-95E89B67D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -121,6 +124,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G2" sqref="G2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +454,7 @@
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -474,7 +479,7 @@
         <v>288</v>
       </c>
       <c r="C2" s="3">
-        <v>0.16800000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -482,8 +487,10 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -491,7 +498,7 @@
         <v>288</v>
       </c>
       <c r="C3" s="3">
-        <v>0.19600000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -499,8 +506,10 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -516,8 +525,10 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -533,8 +544,10 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -550,6 +563,11 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PFOA inhalation Rat/Data/PFOA_female_tissues_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_tissues_ORAL_kim_2016.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661343B-7D4D-49B0-A06E-95E89B67D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,9 +73,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +124,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,22 +438,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -471,12 +470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>1.68</v>
@@ -490,12 +489,12 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3">
         <v>1.96</v>
@@ -509,12 +508,12 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>0.88600000000000001</v>
@@ -528,12 +527,12 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>0.312</v>
@@ -547,12 +546,12 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>0.73099999999999998</v>
@@ -566,7 +565,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" s="5"/>
     </row>
   </sheetData>
